--- a/biology/Botanique/Commiphora_wightii/Commiphora_wightii.xlsx
+++ b/biology/Botanique/Commiphora_wightii/Commiphora_wightii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Commiphora wrightii est un arbre de la famille des Burseraceae. Cette plante est originaire d'Inde et est utilisé dans la médecine ayurvedique. Elle a pour nom vernaculaire gugulon ou Guggulu. Elle est proche de l'arbre à myrrhe.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Pakistan et en Inde. Elle vit dans des habitats arides et semi-arides avec des précipitations allant de 327 à 434 mm par an et des températures variant de 4,6 °C en hiver à 45 °C en été[1].
-On la trouve souvent avec les autres espèces d'arbres Acacia nilotica, Acacia senegal, Zizyphus nummu-laria, Euphoriba nivullia, Prosopis juliflora, Capparis decidua, Grewia tenax et Cassia auriculata[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Pakistan et en Inde. Elle vit dans des habitats arides et semi-arides avec des précipitations allant de 327 à 434 mm par an et des températures variant de 4,6 °C en hiver à 45 °C en été.
+On la trouve souvent avec les autres espèces d'arbres Acacia nilotica, Acacia senegal, Zizyphus nummu-laria, Euphoriba nivullia, Prosopis juliflora, Capparis decidua, Grewia tenax et Cassia auriculata.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Pharmacopée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les composants de sa gomme se sont révélés très actifs pour soulager les douleurs rhumatismales et pour faire baisser les taux excessifs de cholestérols et triglycérides dans le sang. On peut donc l'utiliser pour soigner l'arthrose lorsqu'elle est associée à un taux de cholestérol élevé.
 </t>
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'espèce possède plusieurs noms scientifiques non retenus :
 Balsamodendrum wightii Arn.
